--- a/Cronograma Control de Inventario ver1.2.xlsx
+++ b/Cronograma Control de Inventario ver1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prac.sistemas\Documents\Mike\Documentacion-Estadia\Documentos-Estadias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4E17FC-4AF3-4FC0-AB66-3DA0D44C304F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DC27B-CD48-44B9-A96C-5BF4719C005F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>N</t>
   </si>
@@ -201,19 +201,22 @@
     <t>Pantalla de Mantenimiento</t>
   </si>
   <si>
-    <t>Pantalla de Asiganciones</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>Módulo de Catálogos de Inventario</t>
   </si>
   <si>
-    <t xml:space="preserve">Módulo de </t>
+    <t>Módulo de Procesos de Asignaciones</t>
   </si>
   <si>
-    <t>Módulo de Procesos de Asignaciones</t>
+    <t xml:space="preserve">Módulo de Informes de Asignaciones </t>
+  </si>
+  <si>
+    <t>Pantalla de Asignaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo de Informes de Plan de Mantenimiento </t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1326,8 @@
   </sheetPr>
   <dimension ref="A1:AC969"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="9">
-        <f>NETWORKDAYS(F6,G6)</f>
+        <f t="shared" ref="E6:E12" si="5">NETWORKDAYS(F6,G6)</f>
         <v>3</v>
       </c>
       <c r="F6" s="24">
@@ -1624,11 +1627,11 @@
         <v>45083</v>
       </c>
       <c r="H6" s="32" t="str">
-        <f>IF(WEEKDAY(F6,2)=1,"Lunes",IF(WEEKDAY(F6,2)=2,"Martes",IF(WEEKDAY(F6,2)=3,"Miercoles",IF(WEEKDAY(F6,2)=4,"Jueves",IF(WEEKDAY(F6,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" ref="H6:I11" si="6">IF(WEEKDAY(F6,2)=1,"Lunes",IF(WEEKDAY(F6,2)=2,"Martes",IF(WEEKDAY(F6,2)=3,"Miercoles",IF(WEEKDAY(F6,2)=4,"Jueves",IF(WEEKDAY(F6,2)=5,"Viernes","No Aplica")))))</f>
         <v>Viernes</v>
       </c>
       <c r="I6" s="33" t="str">
-        <f>IF(WEEKDAY(G6,2)=1,"Lunes",IF(WEEKDAY(G6,2)=2,"Martes",IF(WEEKDAY(G6,2)=3,"Miercoles",IF(WEEKDAY(G6,2)=4,"Jueves",IF(WEEKDAY(G6,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Martes</v>
       </c>
       <c r="J6" s="58" t="e">
@@ -1661,10 +1664,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="9">
-        <f>NETWORKDAYS(F7,G7)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F7" s="24">
@@ -1674,11 +1677,11 @@
         <v>45085</v>
       </c>
       <c r="H7" s="32" t="str">
-        <f>IF(WEEKDAY(F7,2)=1,"Lunes",IF(WEEKDAY(F7,2)=2,"Martes",IF(WEEKDAY(F7,2)=3,"Miercoles",IF(WEEKDAY(F7,2)=4,"Jueves",IF(WEEKDAY(F7,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Miercoles</v>
       </c>
       <c r="I7" s="33" t="str">
-        <f>IF(WEEKDAY(G7,2)=1,"Lunes",IF(WEEKDAY(G7,2)=2,"Martes",IF(WEEKDAY(G7,2)=3,"Miercoles",IF(WEEKDAY(G7,2)=4,"Jueves",IF(WEEKDAY(G7,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Jueves</v>
       </c>
       <c r="J7" s="58" t="str">
@@ -1711,7 +1714,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="14">
-        <f>NETWORKDAYS(F8,G8)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F8" s="24">
@@ -1721,11 +1724,11 @@
         <v>45089</v>
       </c>
       <c r="H8" s="32" t="str">
-        <f>IF(WEEKDAY(F8,2)=1,"Lunes",IF(WEEKDAY(F8,2)=2,"Martes",IF(WEEKDAY(F8,2)=3,"Miercoles",IF(WEEKDAY(F8,2)=4,"Jueves",IF(WEEKDAY(F8,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Viernes</v>
       </c>
       <c r="I8" s="33" t="str">
-        <f>IF(WEEKDAY(G8,2)=1,"Lunes",IF(WEEKDAY(G8,2)=2,"Martes",IF(WEEKDAY(G8,2)=3,"Miercoles",IF(WEEKDAY(G8,2)=4,"Jueves",IF(WEEKDAY(G8,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Lunes</v>
       </c>
       <c r="J8" s="58" t="str">
@@ -1756,7 +1759,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <f>NETWORKDAYS(F9,G9)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F9" s="24">
@@ -1766,11 +1769,11 @@
         <v>45096</v>
       </c>
       <c r="H9" s="32" t="str">
-        <f>IF(WEEKDAY(F9,2)=1,"Lunes",IF(WEEKDAY(F9,2)=2,"Martes",IF(WEEKDAY(F9,2)=3,"Miercoles",IF(WEEKDAY(F9,2)=4,"Jueves",IF(WEEKDAY(F9,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Viernes</v>
       </c>
       <c r="I9" s="33" t="str">
-        <f>IF(WEEKDAY(G9,2)=1,"Lunes",IF(WEEKDAY(G9,2)=2,"Martes",IF(WEEKDAY(G9,2)=3,"Miercoles",IF(WEEKDAY(G9,2)=4,"Jueves",IF(WEEKDAY(G9,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Lunes</v>
       </c>
       <c r="J9" s="58" t="str">
@@ -1798,10 +1801,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E10" s="14">
-        <f>NETWORKDAYS(F10,G10)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F10" s="24">
@@ -1811,11 +1814,11 @@
         <v>45114</v>
       </c>
       <c r="H10" s="32" t="str">
-        <f>IF(WEEKDAY(F10,2)=1,"Lunes",IF(WEEKDAY(F10,2)=2,"Martes",IF(WEEKDAY(F10,2)=3,"Miercoles",IF(WEEKDAY(F10,2)=4,"Jueves",IF(WEEKDAY(F10,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Martes</v>
       </c>
       <c r="I10" s="33" t="str">
-        <f>IF(WEEKDAY(G10,2)=1,"Lunes",IF(WEEKDAY(G10,2)=2,"Martes",IF(WEEKDAY(G10,2)=3,"Miercoles",IF(WEEKDAY(G10,2)=4,"Jueves",IF(WEEKDAY(G10,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Viernes</v>
       </c>
       <c r="J10" s="58" t="e">
@@ -1842,11 +1845,11 @@
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="14">
-        <f>NETWORKDAYS(F11,G11)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F11" s="24">
@@ -1856,11 +1859,11 @@
         <v>45128</v>
       </c>
       <c r="H11" s="32" t="str">
-        <f>IF(WEEKDAY(F11,2)=1,"Lunes",IF(WEEKDAY(F11,2)=2,"Martes",IF(WEEKDAY(F11,2)=3,"Miercoles",IF(WEEKDAY(F11,2)=4,"Jueves",IF(WEEKDAY(F11,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Lunes</v>
       </c>
       <c r="I11" s="33" t="str">
-        <f>IF(WEEKDAY(G11,2)=1,"Lunes",IF(WEEKDAY(G11,2)=2,"Martes",IF(WEEKDAY(G11,2)=3,"Miercoles",IF(WEEKDAY(G11,2)=4,"Jueves",IF(WEEKDAY(G11,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" si="6"/>
         <v>Viernes</v>
       </c>
       <c r="J11" s="58" t="str">
@@ -1888,10 +1891,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14">
-        <f>NETWORKDAYS(F12,G12)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F12" s="24">
@@ -1917,7 +1920,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="27"/>
@@ -1948,11 +1951,11 @@
       <c r="F14" s="22"/>
       <c r="G14" s="26"/>
       <c r="H14" s="32" t="str">
-        <f t="shared" ref="H14:H16" si="5">IF(WEEKDAY(F14,2)=1,"Lunes",IF(WEEKDAY(F14,2)=2,"Martes",IF(WEEKDAY(F14,2)=3,"Miercoles",IF(WEEKDAY(F14,2)=4,"Jueves",IF(WEEKDAY(F14,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" ref="H14:H16" si="7">IF(WEEKDAY(F14,2)=1,"Lunes",IF(WEEKDAY(F14,2)=2,"Martes",IF(WEEKDAY(F14,2)=3,"Miercoles",IF(WEEKDAY(F14,2)=4,"Jueves",IF(WEEKDAY(F14,2)=5,"Viernes","No Aplica")))))</f>
         <v>No Aplica</v>
       </c>
       <c r="I14" s="33" t="str">
-        <f t="shared" ref="I14:I16" si="6">IF(WEEKDAY(G14,2)=1,"Lunes",IF(WEEKDAY(G14,2)=2,"Martes",IF(WEEKDAY(G14,2)=3,"Miercoles",IF(WEEKDAY(G14,2)=4,"Jueves",IF(WEEKDAY(G14,2)=5,"Viernes","No Aplica")))))</f>
+        <f t="shared" ref="I14:I16" si="8">IF(WEEKDAY(G14,2)=1,"Lunes",IF(WEEKDAY(G14,2)=2,"Martes",IF(WEEKDAY(G14,2)=3,"Miercoles",IF(WEEKDAY(G14,2)=4,"Jueves",IF(WEEKDAY(G14,2)=5,"Viernes","No Aplica")))))</f>
         <v>No Aplica</v>
       </c>
       <c r="J14" s="58" t="str">
@@ -1980,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="22"/>
@@ -1996,16 +1999,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16" si="7">NETWORKDAYS(F16,G16)</f>
+        <f t="shared" ref="E16" si="9">NETWORKDAYS(F16,G16)</f>
         <v>1</v>
       </c>
       <c r="F16" s="22">
@@ -2015,11 +2018,11 @@
         <v>45030</v>
       </c>
       <c r="H16" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Viernes</v>
       </c>
       <c r="I16" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Viernes</v>
       </c>
       <c r="J16" s="58" t="e">

--- a/Cronograma Control de Inventario ver1.2.xlsx
+++ b/Cronograma Control de Inventario ver1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Estadias Wurth\Documentos-Estadias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A091A9-D020-4611-9A05-D1D18C929FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4BBF2E-55EB-4D40-BDFB-38539903B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:AC969"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1365,10 +1365,10 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" style="23" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="23" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="56" hidden="1" customWidth="1"/>
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E2:E5" si="3">NETWORKDAYS(F3,G3)</f>
+        <f t="shared" ref="E3:E5" si="3">NETWORKDAYS(F3,G3)</f>
         <v>4</v>
       </c>
       <c r="F3" s="24">
